--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2014.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2014.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.001*"exchange" + 0.001*"bank" + 0.001*"foreign" + 0.001*"rate" + 0.001*"arrangement" + 0.001*"country" + 0.001*"currency" + 0.000*"capital" + 0.000*"transaction" + 0.000*"report"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"foreign" + 0.001*"rate" + 0.001*"bank" + 0.001*"arrangement" + 0.001*"market" + 0.000*"capital" + 0.000*"country" + 0.000*"currency" + 0.000*"monetary"</t>
-  </si>
-  <si>
-    <t>0.003*"exchange" + 0.001*"foreign" + 0.001*"rate" + 0.001*"capital" + 0.001*"market" + 0.001*"bank" + 0.001*"arrangement" + 0.001*"country" + 0.001*"report" + 0.001*"transaction"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"foreign" + 0.001*"rate" + 0.000*"country" + 0.000*"market" + 0.000*"arrangement" + 0.000*"capital" + 0.000*"bank" + 0.000*"measure" + 0.000*"currency"</t>
-  </si>
-  <si>
-    <t>0.031*"exchange" + 0.017*"foreign" + 0.017*"rate" + 0.012*"bank" + 0.011*"country" + 0.011*"arrangement" + 0.009*"market" + 0.009*"capital" + 0.008*"monetary" + 0.008*"currency"</t>
+    <t>0.048*"exchange" + 0.036*"rate" + 0.031*"arrangement" + 0.016*"effective" + 0.014*"country" + 0.014*"measure" + 0.012*"currency" + 0.011*"bank" + 0.010*"foreign" + 0.009*"float"</t>
+  </si>
+  <si>
+    <t>0.024*"report" + 0.022*"country" + 0.021*"imf" + 0.013*"economy" + 0.012*"exchange" + 0.011*"staff" + 0.011*"include" + 0.010*"article" + 0.010*"market" + 0.010*"capital"</t>
+  </si>
+  <si>
+    <t>0.017*"bank" + 0.016*"transfer" + 0.014*"limit" + 0.014*"account" + 0.010*"abroad" + 0.010*"nonresident" + 0.009*"include" + 0.009*"restriction" + 0.008*"rate" + 0.008*"payment"</t>
+  </si>
+  <si>
+    <t>0.019*"fund" + 0.018*"international" + 0.017*"monetary" + 0.016*"dollar" + 0.015*"market" + 0.014*"u" + 0.013*"exchange" + 0.011*"tober" + 0.011*"oc" + 0.011*"bank"</t>
+  </si>
+  <si>
+    <t>0.048*"foreign" + 0.044*"exchange" + 0.016*"transaction" + 0.016*"payment" + 0.015*"currency" + 0.015*"requirement" + 0.014*"market" + 0.013*"capital" + 0.012*"control" + 0.011*"bank"</t>
   </si>
 </sst>
 </file>
